--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minersutep-my.sharepoint.com/personal/dfdeblasio_utep_edu/Documents/Classes/CS2401/Fall 2020/cs2401-documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Documents/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0AD70E-BE47-3643-99C3-3D10DECC556B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336A314-AF93-6D40-8929-F9BAB3A2E3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21960" yWindow="9960" windowWidth="29740" windowHeight="20380" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="1360" yWindow="500" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan F21" sheetId="4" r:id="rId2"/>
+    <sheet name="Plan F20" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
   <si>
     <t>Week</t>
   </si>
@@ -498,13 +508,91 @@
   </si>
   <si>
     <t>MFG Part: P569-025CDW Part: 2287179UNSPSC: 26121604</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL </t>
+  </si>
+  <si>
+    <t>Monday, December 6 @ 1pm</t>
+  </si>
+  <si>
+    <t>Monday HW</t>
+  </si>
+  <si>
+    <t>Tuesday Lab</t>
+  </si>
+  <si>
+    <t>Thursday Lab</t>
+  </si>
+  <si>
+    <t>get git/ide setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intros</t>
+  </si>
+  <si>
+    <t>walkthrough a sample problem in detail,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> give walkthrough of problem solving techniques, </t>
+  </si>
+  <si>
+    <t>work on formatting and debugging</t>
+  </si>
+  <si>
+    <t>cipher,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starting in groups to discuss the problem together on a whiteboard before implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if students struggle too much for lab 1, another day. </t>
+  </si>
+  <si>
+    <t>Otherwise start lab 2:ASCII art</t>
+  </si>
+  <si>
+    <t>Lab 0 -- git</t>
+  </si>
+  <si>
+    <t>Lab 1 -- ciphers</t>
+  </si>
+  <si>
+    <t>Lab 2 -- ascii</t>
+  </si>
+  <si>
+    <t>Lab 3 (?) -- order notation</t>
+  </si>
+  <si>
+    <t>Midterm I</t>
+  </si>
+  <si>
+    <t>(Arrays, Strings, Unit Tests, Loops)</t>
+  </si>
+  <si>
+    <t>Midterm II</t>
+  </si>
+  <si>
+    <t>Midterm III</t>
+  </si>
+  <si>
+    <t>(Linked Lists, n log n sorts)</t>
+  </si>
+  <si>
+    <t>(Analysis, Searching, n^2 Sorting, Recursion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inharatanace </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,8 +615,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -746,6 +846,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -778,6 +881,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,11 +1403,714 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FCF832-66DA-5042-83DC-63C0CD32B871}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40">
+        <v>44431</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="41">
+        <v>44438</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="67">
+        <v>3</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44445</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="J8" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="60">
+        <v>4</v>
+      </c>
+      <c r="C10" s="64">
+        <v>44452</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="40">
+        <v>44459</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="C14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="66">
+        <v>6</v>
+      </c>
+      <c r="C15" s="41">
+        <v>44466</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="J15" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="65"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+      <c r="C17" s="40">
+        <v>44474</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="60">
+        <v>8</v>
+      </c>
+      <c r="C18" s="41">
+        <v>44480</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="46"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="67">
+        <v>9</v>
+      </c>
+      <c r="C21" s="42">
+        <v>44487</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="J21" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="C22" s="22"/>
+      <c r="F22" s="19"/>
+      <c r="J22" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="10">
+        <v>10</v>
+      </c>
+      <c r="C23" s="41">
+        <v>44494</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="6">
+        <v>11</v>
+      </c>
+      <c r="C26" s="42">
+        <v>44501</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="10">
+        <v>12</v>
+      </c>
+      <c r="C27" s="41">
+        <v>44508</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="15">
+        <v>13</v>
+      </c>
+      <c r="C29" s="43">
+        <v>44515</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>14</v>
+      </c>
+      <c r="C30" s="44">
+        <v>44522</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>15</v>
+      </c>
+      <c r="C31" s="44">
+        <v>44529</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="J31" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A478A4-F22F-7A4D-9C9A-0515F98BB5C4}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,7 +2153,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -1320,12 +2176,12 @@
       <c r="I2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -1336,10 +2192,10 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -1350,10 +2206,10 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -1378,12 +2234,12 @@
       <c r="I5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -1398,10 +2254,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1412,10 +2268,10 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="29"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -1440,12 +2296,12 @@
       <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -1460,10 +2316,10 @@
       <c r="I9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15">
         <v>4</v>
       </c>
@@ -1484,10 +2340,10 @@
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4">
@@ -1512,12 +2368,12 @@
       <c r="I11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
@@ -1532,10 +2388,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="10">
         <v>6</v>
       </c>
@@ -1560,12 +2416,12 @@
       <c r="I13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
@@ -1578,10 +2434,10 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
@@ -1592,10 +2448,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="4">
@@ -1620,12 +2476,12 @@
       <c r="I16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="23">
         <v>8</v>
       </c>
@@ -1646,10 +2502,10 @@
       <c r="I17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -1674,12 +2530,12 @@
       <c r="I18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
@@ -1690,10 +2546,10 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="8" t="s">
@@ -1704,10 +2560,10 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="36"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="10">
         <v>10</v>
       </c>
@@ -1732,10 +2588,10 @@
       <c r="I21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
@@ -1748,10 +2604,10 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="36"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="12"/>
       <c r="C23" s="19"/>
       <c r="D23" s="13"/>
@@ -1762,10 +2618,10 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6">
         <v>11</v>
       </c>
@@ -1793,7 +2649,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="10">
         <v>12</v>
       </c>
@@ -1814,12 +2670,12 @@
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="12"/>
       <c r="C26" s="19"/>
       <c r="D26" s="13" t="s">
@@ -1830,10 +2686,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="29"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15">
         <v>13</v>
       </c>
@@ -1913,7 +2769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B63A016-4523-CA4C-A5E2-4AD2391F633B}">
   <dimension ref="A1:C18"/>
   <sheetViews>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Documents/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336A314-AF93-6D40-8929-F9BAB3A2E3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EED21AE-1061-A842-BBA8-10F4B2C2CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="500" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -908,11 +908,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,7 +920,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1407,7 +1406,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,7 +1508,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>172</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1538,7 +1537,7 @@
       <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1586,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="57" t="s">
         <v>173</v>
       </c>
       <c r="H7" s="13"/>
@@ -1596,7 +1595,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="67">
+      <c r="B8" s="66">
         <v>3</v>
       </c>
       <c r="C8" s="42">
@@ -1611,8 +1610,10 @@
       <c r="F8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="J8" s="63" t="s">
+      <c r="G8" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="62" t="s">
         <v>176</v>
       </c>
       <c r="K8" s="48"/>
@@ -1626,10 +1627,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="63" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="62" t="s">
         <v>177</v>
       </c>
       <c r="K9" s="49"/>
@@ -1639,7 +1640,7 @@
       <c r="B10" s="60">
         <v>4</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>44452</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1651,10 +1652,11 @@
       <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="16" t="s">
@@ -1673,16 +1675,16 @@
       <c r="F11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="20" t="s">
         <v>119</v>
       </c>
       <c r="K11" s="49"/>
@@ -1704,14 +1706,14 @@
       <c r="F12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>117</v>
       </c>
       <c r="K12" s="50"/>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
-      <c r="B15" s="66">
+      <c r="B15" s="65">
         <v>6</v>
       </c>
       <c r="C15" s="41">
@@ -1760,7 +1762,7 @@
         <v>118</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="62" t="s">
         <v>178</v>
       </c>
       <c r="K15" s="46"/>
@@ -1777,10 +1779,10 @@
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="65"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
@@ -1872,14 +1874,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
-      <c r="B21" s="67">
+      <c r="B21" s="66">
         <v>9</v>
       </c>
       <c r="C21" s="42">
         <v>44487</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>179</v>
       </c>
       <c r="K21" s="46"/>
@@ -1888,7 +1890,7 @@
       <c r="A22" s="32"/>
       <c r="C22" s="22"/>
       <c r="F22" s="19"/>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="62" t="s">
         <v>180</v>
       </c>
       <c r="K22" s="47"/>
@@ -2060,7 +2062,7 @@
       <c r="F30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="55"/>
+      <c r="G30" s="54"/>
       <c r="H30" t="s">
         <v>109</v>
       </c>
@@ -2079,7 +2081,7 @@
       <c r="F31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="54"/>
       <c r="J31" s="22" t="s">
         <v>115</v>
       </c>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Documents/cs2401-documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EED21AE-1061-A842-BBA8-10F4B2C2CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707845B-C66D-7C45-BF5A-0BF2B49F352C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="51740" yWindow="10560" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
@@ -849,39 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -930,6 +897,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,13 +1452,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="29">
         <v>44431</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1468,7 +1468,7 @@
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>164</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1478,12 +1478,12 @@
       <c r="J2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="39" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -1497,18 +1497,18 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="35" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="44" t="s">
         <v>172</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1516,16 +1516,16 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="36" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="30">
         <v>44438</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1537,7 +1537,7 @@
       <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="45" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1549,12 +1549,12 @@
       <c r="J5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="34" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -1572,12 +1572,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="35" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1585,20 +1585,20 @@
         <v>6</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="46" t="s">
         <v>173</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="47"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="66">
+      <c r="A8" s="57"/>
+      <c r="B8" s="55">
         <v>3</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="31">
         <v>44445</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1610,16 +1610,16 @@
       <c r="F8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="48"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -1630,17 +1630,17 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="60">
+      <c r="A10" s="57"/>
+      <c r="B10" s="49">
         <v>4</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="52">
         <v>44452</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1662,11 +1662,11 @@
       <c r="J10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="48"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>48</v>
@@ -1675,28 +1675,28 @@
       <c r="F11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="50" t="s">
         <v>103</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="56" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="29">
         <v>44459</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1716,10 +1716,10 @@
       <c r="J12" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="50"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
@@ -1730,10 +1730,10 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="46"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="57"/>
       <c r="C14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="13"/>
@@ -1742,14 +1742,14 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="47"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="65">
+      <c r="A15" s="57"/>
+      <c r="B15" s="54">
         <v>6</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="30">
         <v>44466</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1762,13 +1762,13 @@
         <v>118</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="K15" s="46"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="6"/>
       <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
@@ -1779,19 +1779,19 @@
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="64"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="56" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="29">
         <v>44474</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1803,7 +1803,7 @@
       <c r="F17" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1811,14 +1811,14 @@
       <c r="J17" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="50"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="60">
+      <c r="A18" s="57"/>
+      <c r="B18" s="49">
         <v>8</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="30">
         <v>44480</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -1830,7 +1830,7 @@
       <c r="F18" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="11" t="s">
         <v>29</v>
       </c>
@@ -1840,10 +1840,10 @@
       <c r="J18" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="46"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
@@ -1855,52 +1855,52 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="46"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="12"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="42" t="s">
         <v>182</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="53"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="47"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="66">
+      <c r="A21" s="57"/>
+      <c r="B21" s="55">
         <v>9</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="31">
         <v>44487</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="46"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="57"/>
       <c r="C22" s="22"/>
       <c r="F22" s="19"/>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="47"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="10">
         <v>10</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="30">
         <v>44494</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1912,7 +1912,7 @@
       <c r="F23" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="J23" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="46"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="46"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="12"/>
       <c r="C25" s="19"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="53"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="19"/>
-      <c r="K25" s="47"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="6">
         <v>11</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="31">
         <v>44501</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1984,11 +1984,11 @@
       <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="10">
         <v>12</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="30">
         <v>44508</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1998,7 +1998,7 @@
       <c r="F27" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="11" t="s">
         <v>132</v>
       </c>
@@ -2006,10 +2006,10 @@
       <c r="J27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="29"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="12"/>
       <c r="C28" s="19"/>
       <c r="D28" s="13" t="s">
@@ -2017,18 +2017,18 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="53"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="15">
         <v>13</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="32">
         <v>44515</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2046,14 +2046,14 @@
       <c r="J29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="59"/>
+      <c r="K29" s="48"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>14</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="33">
         <v>44522</v>
       </c>
       <c r="D30" t="s">
@@ -2062,7 +2062,7 @@
       <c r="F30" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="54"/>
+      <c r="G30" s="43"/>
       <c r="H30" t="s">
         <v>109</v>
       </c>
@@ -2075,13 +2075,13 @@
       <c r="B31" s="3">
         <v>15</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="33">
         <v>44529</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="54"/>
+      <c r="G31" s="43"/>
       <c r="J31" s="22" t="s">
         <v>115</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="56" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -2178,12 +2178,12 @@
       <c r="I2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="65" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -2194,10 +2194,10 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="37"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -2208,10 +2208,10 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="30"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -2236,12 +2236,12 @@
       <c r="I5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="59" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -2256,10 +2256,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -2270,10 +2270,10 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="30"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2298,12 +2298,12 @@
       <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -2318,10 +2318,10 @@
       <c r="I9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="15">
         <v>4</v>
       </c>
@@ -2342,10 +2342,10 @@
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="56" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4">
@@ -2370,12 +2370,12 @@
       <c r="I11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="65" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
@@ -2390,10 +2390,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="10">
         <v>6</v>
       </c>
@@ -2418,12 +2418,12 @@
       <c r="I13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="59" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
@@ -2436,10 +2436,10 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="37"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
@@ -2450,10 +2450,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="39"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="56" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="4">
@@ -2478,12 +2478,12 @@
       <c r="I16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="65" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="23">
         <v>8</v>
       </c>
@@ -2504,10 +2504,10 @@
       <c r="I17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -2532,12 +2532,12 @@
       <c r="I18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
@@ -2548,10 +2548,10 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="8" t="s">
@@ -2562,10 +2562,10 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="37"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="10">
         <v>10</v>
       </c>
@@ -2590,10 +2590,10 @@
       <c r="I21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
@@ -2606,10 +2606,10 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="12"/>
       <c r="C23" s="19"/>
       <c r="D23" s="13"/>
@@ -2620,10 +2620,10 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="6">
         <v>11</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="10">
         <v>12</v>
       </c>
@@ -2672,12 +2672,12 @@
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="12"/>
       <c r="C26" s="19"/>
       <c r="D26" s="13" t="s">
@@ -2688,10 +2688,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="30"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="15">
         <v>13</v>
       </c>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707845B-C66D-7C45-BF5A-0BF2B49F352C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62419135-D03F-304F-879C-2E37AA783684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="10560" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="9220" yWindow="1100" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -930,6 +930,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1409,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
-      <c r="B8" s="55">
+      <c r="B8" s="67">
         <v>3</v>
       </c>
       <c r="C8" s="31">
@@ -1613,8 +1616,8 @@
       <c r="G8" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="51" t="s">
-        <v>176</v>
+      <c r="J8" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="K8" s="37"/>
     </row>
@@ -1630,14 +1633,14 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="51" t="s">
-        <v>177</v>
+      <c r="J9" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
-      <c r="B10" s="49">
+      <c r="B10" s="54">
         <v>4</v>
       </c>
       <c r="C10" s="52">
@@ -1649,8 +1652,8 @@
       <c r="E10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>12</v>
+      <c r="F10" s="51" t="s">
+        <v>176</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
@@ -1672,8 +1675,8 @@
         <v>48</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="17" t="s">
-        <v>13</v>
+      <c r="F11" s="51" t="s">
+        <v>177</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>175</v>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62419135-D03F-304F-879C-2E37AA783684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BDCCA-B38D-7848-BCF7-6BC4CBE5FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="1100" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="5560" yWindow="7040" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="211">
   <si>
     <t>Week</t>
   </si>
@@ -564,9 +564,6 @@
     <t>Lab 2 -- ascii</t>
   </si>
   <si>
-    <t>Lab 3 (?) -- order notation</t>
-  </si>
-  <si>
     <t>Midterm I</t>
   </si>
   <si>
@@ -579,20 +576,107 @@
     <t>Midterm III</t>
   </si>
   <si>
-    <t>(Linked Lists, n log n sorts)</t>
-  </si>
-  <si>
-    <t>(Analysis, Searching, n^2 Sorting, Recursion)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inharatanace </t>
+  </si>
+  <si>
+    <t>Resumes</t>
+  </si>
+  <si>
+    <t>Catchup 1</t>
+  </si>
+  <si>
+    <t>Recusrion (6.1-6.9)</t>
+  </si>
+  <si>
+    <t>Catchup 2</t>
+  </si>
+  <si>
+    <t>non-number binary search</t>
+  </si>
+  <si>
+    <t>Searching and Sorting (7.1-7.2)</t>
+  </si>
+  <si>
+    <t>Searching and Sorting (7.3-7.6)</t>
+  </si>
+  <si>
+    <t>n^2 sort</t>
+  </si>
+  <si>
+    <t>Searching and Sorting (7.7-7.16)</t>
+  </si>
+  <si>
+    <t>n log n sort</t>
+  </si>
+  <si>
+    <t>Objects (8.1-8.9)</t>
+  </si>
+  <si>
+    <t>(Analysis, Searching, Sorting, Recursion)</t>
+  </si>
+  <si>
+    <t>Properties of Objects</t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>Linked Lists (11.1-11.15)</t>
+  </si>
+  <si>
+    <t>Midterm IV</t>
+  </si>
+  <si>
+    <t>(Trees, Stacks, Queues)</t>
+  </si>
+  <si>
+    <t>(Linked Lists, Trees)</t>
+  </si>
+  <si>
+    <t>Pre-Final</t>
+  </si>
+  <si>
+    <t>Debreif</t>
+  </si>
+  <si>
+    <t>Catch Up</t>
+  </si>
+  <si>
+    <t>Catchup 3</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues (13.1)</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues (13.2)</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues (13.4-13.6)</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fill In</t>
+  </si>
+  <si>
+    <t>Final Review</t>
+  </si>
+  <si>
+    <t>Lab 3 -- order notation</t>
+  </si>
+  <si>
+    <t>Catchup 4</t>
+  </si>
+  <si>
+    <t>Alg. Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,8 +705,24 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,8 +753,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -793,11 +911,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -846,14 +977,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -861,9 +987,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,27 +998,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,9 +1045,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,14 +1559,17 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1455,13 +1608,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>44431</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1471,7 +1624,7 @@
       <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="36" t="s">
         <v>164</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1481,12 +1634,12 @@
       <c r="J2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="35" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -1500,18 +1653,18 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="32" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="39" t="s">
         <v>172</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1519,16 +1672,16 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>44438</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1540,7 +1693,7 @@
       <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="65" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1552,12 +1705,12 @@
       <c r="J5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="31" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -1575,12 +1728,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1588,20 +1741,20 @@
         <v>6</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="40" t="s">
         <v>173</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="67">
+      <c r="A8" s="48"/>
+      <c r="B8" s="46">
         <v>3</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>44445</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1613,16 +1766,18 @@
       <c r="F8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -1630,227 +1785,238 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54">
+      <c r="A10" s="48"/>
+      <c r="B10" s="45">
         <v>4</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="44">
         <v>44452</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>44459</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="29">
-        <v>44459</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="39"/>
+        <v>184</v>
+      </c>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="7"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="C14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="36"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="42">
+        <v>6</v>
+      </c>
+      <c r="C14" s="29">
+        <v>44466</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="54">
-        <v>6</v>
-      </c>
-      <c r="C15" s="30">
-        <v>44466</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="J15" s="51" t="s">
-        <v>178</v>
+      <c r="A15" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="58">
+        <v>7</v>
+      </c>
+      <c r="C15" s="28">
+        <v>44473</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>177</v>
       </c>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="48"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="53"/>
+      <c r="J16" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="4">
-        <v>7</v>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42">
+        <v>8</v>
       </c>
       <c r="C17" s="29">
-        <v>44474</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="39"/>
+        <v>44480</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="49">
-        <v>8</v>
-      </c>
-      <c r="C18" s="30">
-        <v>44480</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" s="35"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="17"/>
@@ -1858,236 +2024,263 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="36"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="42">
+        <v>9</v>
+      </c>
+      <c r="C20" s="29">
+        <v>44487</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="55">
-        <v>9</v>
-      </c>
-      <c r="C21" s="31">
-        <v>44487</v>
-      </c>
+      <c r="A21" s="48"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="17"/>
-      <c r="J21" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="35"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="C22" s="22"/>
-      <c r="F22" s="19"/>
-      <c r="J22" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="36"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="45">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29">
+        <v>44494</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="10">
-        <v>10</v>
-      </c>
-      <c r="C23" s="30">
-        <v>44494</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="35"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="17"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="35"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="36"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="68">
+        <v>11</v>
+      </c>
+      <c r="C25" s="69">
+        <v>44501</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="72"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="6">
-        <v>11</v>
-      </c>
-      <c r="C26" s="31">
-        <v>44501</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="30">
+        <v>44508</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>135</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="10">
-        <v>12</v>
-      </c>
-      <c r="C27" s="30">
-        <v>44508</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="59"/>
+        <v>206</v>
+      </c>
+      <c r="K26" s="55"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="13" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="58">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28">
+        <v>44515</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="60"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="15">
-        <v>13</v>
-      </c>
-      <c r="C29" s="32">
-        <v>44515</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="48"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="73"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="76"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3">
+      <c r="B30" s="68">
         <v>14</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="69">
         <v>44522</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="43"/>
-      <c r="H30" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="70"/>
+      <c r="J30" s="77" t="s">
         <v>110</v>
       </c>
+      <c r="K30" s="70"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3">
+      <c r="B31" s="79">
         <v>15</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="30">
         <v>44529</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="J31" s="22" t="s">
-        <v>115</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -2100,10 +2293,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2158,7 +2351,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -2181,12 +2374,12 @@
       <c r="I2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="56" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -2197,10 +2390,10 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="64"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -2211,10 +2404,10 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="60"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -2239,12 +2432,12 @@
       <c r="I5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -2259,10 +2452,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="64"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -2273,10 +2466,10 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="60"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2301,12 +2494,12 @@
       <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -2321,10 +2514,10 @@
       <c r="I9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="62"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="15">
         <v>4</v>
       </c>
@@ -2345,10 +2538,10 @@
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4">
@@ -2373,12 +2566,12 @@
       <c r="I11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="56" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
@@ -2393,10 +2586,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="60"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="10">
         <v>6</v>
       </c>
@@ -2421,12 +2614,12 @@
       <c r="I13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="50" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
@@ -2439,10 +2632,10 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
@@ -2453,10 +2646,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="66"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="4">
@@ -2481,12 +2674,12 @@
       <c r="I16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="23">
         <v>8</v>
       </c>
@@ -2507,10 +2700,10 @@
       <c r="I17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="60"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -2535,12 +2728,12 @@
       <c r="I18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
@@ -2551,10 +2744,10 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="8" t="s">
@@ -2565,10 +2758,10 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="10">
         <v>10</v>
       </c>
@@ -2593,10 +2786,10 @@
       <c r="I21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="64"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
@@ -2609,10 +2802,10 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="12"/>
       <c r="C23" s="19"/>
       <c r="D23" s="13"/>
@@ -2623,10 +2816,10 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="60"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="6">
         <v>11</v>
       </c>
@@ -2654,7 +2847,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="10">
         <v>12</v>
       </c>
@@ -2675,12 +2868,12 @@
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="50" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="12"/>
       <c r="C26" s="19"/>
       <c r="D26" s="13" t="s">
@@ -2691,10 +2884,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="60"/>
+      <c r="J26" s="51"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="15">
         <v>13</v>
       </c>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BDCCA-B38D-7848-BCF7-6BC4CBE5FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15EF3D-A928-A34D-9DCB-FC37B0C1590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="7040" windowWidth="37040" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="2460" yWindow="3080" windowWidth="26640" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="215">
   <si>
     <t>Week</t>
   </si>
@@ -670,6 +670,18 @@
   </si>
   <si>
     <t>Alg. Analysis</t>
+  </si>
+  <si>
+    <t>quicksort</t>
+  </si>
+  <si>
+    <t>Simple LL</t>
+  </si>
+  <si>
+    <t>Basic Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday/Video/Marissa? </t>
   </si>
 </sst>
 </file>
@@ -722,7 +734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1012,39 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,6 +1069,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FCF832-66DA-5042-83DC-63C0CD32B871}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1567,9 +1588,12 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="23.83203125" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="77.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1608,7 +1632,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -1639,7 +1663,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -1658,7 +1682,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -1677,7 +1701,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -1693,7 +1717,7 @@
       <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="54" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1710,7 +1734,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -1733,7 +1757,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1750,7 +1774,7 @@
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="46">
         <v>3</v>
       </c>
@@ -1777,7 +1801,7 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -1791,10 +1815,10 @@
       <c r="J9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="45">
         <v>4</v>
       </c>
@@ -1805,10 +1829,10 @@
         <v>111</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="69" t="s">
         <v>180</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1818,18 +1842,18 @@
       <c r="J10" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="56" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="43"/>
       <c r="C11" s="20"/>
       <c r="D11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="50" t="s">
         <v>181</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1843,10 +1867,10 @@
         <v>103</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="62"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="71" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="6">
@@ -1877,7 +1901,7 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
@@ -1893,7 +1917,7 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="42">
         <v>6</v>
       </c>
@@ -1920,10 +1944,10 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="47">
         <v>7</v>
       </c>
       <c r="C15" s="28">
@@ -1932,11 +1956,9 @@
       <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>192</v>
+      <c r="E15" s="5"/>
+      <c r="F15" s="81" t="s">
+        <v>211</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="5" t="s">
@@ -1945,30 +1967,28 @@
       <c r="I15" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="53" t="s">
         <v>177</v>
       </c>
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="6"/>
       <c r="C16" s="30"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="17" t="s">
-        <v>193</v>
-      </c>
+      <c r="F16" s="82"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="48" t="s">
         <v>191</v>
       </c>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="42">
         <v>8</v>
       </c>
@@ -1979,32 +1999,34 @@
         <v>28</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>25</v>
+        <v>190</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>192</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17"/>
       <c r="D18" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="82" t="s">
+        <v>193</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2012,14 +2034,14 @@
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2027,7 +2049,7 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="42">
         <v>9</v>
       </c>
@@ -2036,25 +2058,25 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="11" t="s">
         <v>31</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="7"/>
       <c r="C21" s="17"/>
       <c r="D21" s="7"/>
@@ -2067,7 +2089,7 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="45">
         <v>10</v>
       </c>
@@ -2077,7 +2099,9 @@
       <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="18" t="s">
         <v>205</v>
       </c>
@@ -2088,13 +2112,13 @@
       <c r="I22" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="55" t="s">
         <v>178</v>
       </c>
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
@@ -2107,13 +2131,13 @@
         <v>32</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="48" t="s">
         <v>197</v>
       </c>
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
       <c r="D24" s="7"/>
@@ -2128,36 +2152,36 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="68">
+      <c r="A25" s="71"/>
+      <c r="B25" s="57">
         <v>11</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="58">
         <v>44501</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="59" t="s">
         <v>202</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="70" t="s">
+      <c r="G25" s="60"/>
+      <c r="H25" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="59" t="s">
         <v>203</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="72"/>
+      <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="6">
         <v>12</v>
       </c>
@@ -2179,26 +2203,26 @@
       <c r="J26" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="20"/>
       <c r="D27" s="43" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="61"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="57"/>
+      <c r="K27" s="74"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="58">
+      <c r="B28" s="47">
         <v>13</v>
       </c>
       <c r="C28" s="28">
@@ -2216,14 +2240,14 @@
       <c r="I28" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="73"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="74"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="19"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -2231,37 +2255,37 @@
       <c r="G29" s="38"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="76"/>
+      <c r="K29" s="65"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="68">
+      <c r="B30" s="57">
         <v>14</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="58">
         <v>44522</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="70"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="70" t="s">
+      <c r="G30" s="60"/>
+      <c r="H30" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="70"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="79">
+      <c r="B31" s="68">
         <v>15</v>
       </c>
       <c r="C31" s="30">
@@ -2271,7 +2295,7 @@
       <c r="E31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="67" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="8"/>
@@ -2351,7 +2375,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -2374,12 +2398,12 @@
       <c r="I2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="80" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -2390,10 +2414,10 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="55"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -2404,10 +2428,10 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="51"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -2432,12 +2456,12 @@
       <c r="I5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -2452,10 +2476,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -2466,10 +2490,10 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2494,12 +2518,12 @@
       <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="77" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -2514,10 +2538,10 @@
       <c r="I9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="15">
         <v>4</v>
       </c>
@@ -2538,10 +2562,10 @@
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="54"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="70" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4">
@@ -2566,12 +2590,12 @@
       <c r="I11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="80" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
@@ -2586,10 +2610,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="10">
         <v>6</v>
       </c>
@@ -2614,12 +2638,12 @@
       <c r="I13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="75" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
@@ -2632,10 +2656,10 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
@@ -2646,10 +2670,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="57"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="70" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="4">
@@ -2674,12 +2698,12 @@
       <c r="I16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="80" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="23">
         <v>8</v>
       </c>
@@ -2700,10 +2724,10 @@
       <c r="I17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -2728,12 +2752,12 @@
       <c r="I18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="75" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
@@ -2744,10 +2768,10 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="8" t="s">
@@ -2758,10 +2782,10 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="10">
         <v>10</v>
       </c>
@@ -2786,10 +2810,10 @@
       <c r="I21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="55"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
@@ -2802,10 +2826,10 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="12"/>
       <c r="C23" s="19"/>
       <c r="D23" s="13"/>
@@ -2816,10 +2840,10 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="51"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="6">
         <v>11</v>
       </c>
@@ -2847,7 +2871,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="10">
         <v>12</v>
       </c>
@@ -2868,12 +2892,12 @@
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="75" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="12"/>
       <c r="C26" s="19"/>
       <c r="D26" s="13" t="s">
@@ -2884,10 +2908,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="76"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="15">
         <v>13</v>
       </c>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15EF3D-A928-A34D-9DCB-FC37B0C1590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B18F9E0-41DF-4B4D-BDAD-F7F3CACD9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3080" windowWidth="26640" windowHeight="21100" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26160" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan F21" sheetId="4" r:id="rId2"/>
-    <sheet name="Plan F20" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Plan F22" sheetId="5" r:id="rId2"/>
+    <sheet name="Plan F21" sheetId="4" r:id="rId3"/>
+    <sheet name="Plan F20" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="224">
   <si>
     <t>Week</t>
   </si>
@@ -682,6 +683,33 @@
   </si>
   <si>
     <t xml:space="preserve">Holiday/Video/Marissa? </t>
+  </si>
+  <si>
+    <t>Tuesday Date</t>
+  </si>
+  <si>
+    <t>Tuesday Activities</t>
+  </si>
+  <si>
+    <t>Thursday Acitivies</t>
+  </si>
+  <si>
+    <t>Tuesday Videos</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Lab 0 -- Questionare</t>
+  </si>
+  <si>
+    <t>Setting up Replit</t>
+  </si>
+  <si>
+    <t>Intros</t>
+  </si>
+  <si>
+    <t>n^2 sort (Cont'd)</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1097,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1102,9 +1133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1576,10 +1604,692 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3704EE74-89C6-014C-AC77-E74106E27498}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="77.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" customWidth="1"/>
+    <col min="11" max="11" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28">
+        <v>44431</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="74"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="17"/>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="74"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29">
+        <v>44438</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="74"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="74"/>
+      <c r="B8" s="46">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30">
+        <v>44445</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="74"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="74"/>
+      <c r="B10" s="45">
+        <v>4</v>
+      </c>
+      <c r="C10" s="44">
+        <v>44452</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>44459</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="74"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="42">
+        <v>6</v>
+      </c>
+      <c r="C14" s="29">
+        <v>44466</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="47">
+        <v>7</v>
+      </c>
+      <c r="C15" s="28">
+        <v>44473</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="74"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="74"/>
+      <c r="B17" s="42">
+        <v>8</v>
+      </c>
+      <c r="C17" s="29">
+        <v>44480</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="74"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="74"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="74"/>
+      <c r="B20" s="42">
+        <v>9</v>
+      </c>
+      <c r="C20" s="29">
+        <v>44487</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="74"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="74"/>
+      <c r="B22" s="45">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29">
+        <v>44494</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="74"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="74"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
+      <c r="B25" s="57">
+        <v>11</v>
+      </c>
+      <c r="C25" s="58">
+        <v>44501</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="60"/>
+      <c r="H25" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="61"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="74"/>
+      <c r="B26" s="6">
+        <v>12</v>
+      </c>
+      <c r="C26" s="30">
+        <v>44508</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" s="76"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="75"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="77"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="47">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28">
+        <v>44515</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="57">
+        <v>14</v>
+      </c>
+      <c r="C30" s="58">
+        <v>44522</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="59"/>
+      <c r="J30" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="68">
+        <v>15</v>
+      </c>
+      <c r="C31" s="30">
+        <v>44529</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="K26:K27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FCF832-66DA-5042-83DC-63C0CD32B871}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1632,7 +2342,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -1663,7 +2373,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -1682,7 +2392,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -1701,7 +2411,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -1734,7 +2444,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -1757,7 +2467,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -1774,7 +2484,7 @@
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="46">
         <v>3</v>
       </c>
@@ -1801,7 +2511,7 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -1818,7 +2528,7 @@
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="45">
         <v>4</v>
       </c>
@@ -1847,7 +2557,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="43"/>
       <c r="C11" s="20"/>
       <c r="D11" s="43" t="s">
@@ -1870,7 +2580,7 @@
       <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="6">
@@ -1901,7 +2611,7 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
@@ -1917,7 +2627,7 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="42">
         <v>6</v>
       </c>
@@ -1944,7 +2654,7 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="47">
@@ -1957,7 +2667,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="70" t="s">
         <v>211</v>
       </c>
       <c r="G15" s="36"/>
@@ -1973,12 +2683,12 @@
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="6"/>
       <c r="C16" s="30"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="82"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1988,7 +2698,7 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="42">
         <v>8</v>
       </c>
@@ -2001,7 +2711,7 @@
       <c r="E17" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="72" t="s">
         <v>192</v>
       </c>
       <c r="G17" s="37"/>
@@ -2017,14 +2727,14 @@
       <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17"/>
       <c r="D18" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="71" t="s">
         <v>193</v>
       </c>
       <c r="G18" s="8"/>
@@ -2034,14 +2744,14 @@
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="82"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2049,7 +2759,7 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="42">
         <v>9</v>
       </c>
@@ -2076,7 +2786,7 @@
       <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="7"/>
       <c r="C21" s="17"/>
       <c r="D21" s="7"/>
@@ -2089,7 +2799,7 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="45">
         <v>10</v>
       </c>
@@ -2118,7 +2828,7 @@
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
@@ -2137,7 +2847,7 @@
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
       <c r="D24" s="7"/>
@@ -2152,7 +2862,7 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="57">
         <v>11</v>
       </c>
@@ -2181,7 +2891,7 @@
       <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="6">
         <v>12</v>
       </c>
@@ -2203,10 +2913,10 @@
       <c r="J26" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K26" s="73"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="52"/>
       <c r="C27" s="20"/>
       <c r="D27" s="43" t="s">
@@ -2218,7 +2928,7 @@
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="74"/>
+      <c r="K27" s="77"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -2327,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A478A4-F22F-7A4D-9C9A-0515F98BB5C4}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -2375,7 +3085,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="4">
@@ -2398,12 +3108,12 @@
       <c r="I2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="83" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17"/>
       <c r="D3" s="7"/>
@@ -2414,10 +3124,10 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="73"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="7"/>
@@ -2428,10 +3138,10 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="76"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -2456,12 +3166,12 @@
       <c r="I5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="78" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7" t="s">
@@ -2476,10 +3186,10 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="73"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19"/>
       <c r="D7" s="13"/>
@@ -2490,10 +3200,10 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="76"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2518,12 +3228,12 @@
       <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="80" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
@@ -2538,10 +3248,10 @@
       <c r="I9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="78"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="15">
         <v>4</v>
       </c>
@@ -2562,10 +3272,10 @@
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="73" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="4">
@@ -2590,12 +3300,12 @@
       <c r="I11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="80" t="s">
+      <c r="J11" s="83" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
@@ -2610,10 +3320,10 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="76"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="10">
         <v>6</v>
       </c>
@@ -2638,12 +3348,12 @@
       <c r="I13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="78" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
@@ -2656,10 +3366,10 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="73"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
@@ -2670,10 +3380,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="74"/>
+      <c r="J15" s="77"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="4">
@@ -2698,12 +3408,12 @@
       <c r="I16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="80" t="s">
+      <c r="J16" s="83" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="23">
         <v>8</v>
       </c>
@@ -2724,10 +3434,10 @@
       <c r="I17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="76"/>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -2752,12 +3462,12 @@
       <c r="I18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="78" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="8" t="s">
@@ -2768,10 +3478,10 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="73"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="8" t="s">
@@ -2782,10 +3492,10 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="73"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="10">
         <v>10</v>
       </c>
@@ -2810,10 +3520,10 @@
       <c r="I21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="73"/>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
@@ -2826,10 +3536,10 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="73"/>
+      <c r="J22" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="12"/>
       <c r="C23" s="19"/>
       <c r="D23" s="13"/>
@@ -2840,10 +3550,10 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="76"/>
+      <c r="J23" s="79"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="6">
         <v>11</v>
       </c>
@@ -2871,7 +3581,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="10">
         <v>12</v>
       </c>
@@ -2892,12 +3602,12 @@
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="78" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="12"/>
       <c r="C26" s="19"/>
       <c r="D26" s="13" t="s">
@@ -2908,10 +3618,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="76"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="15">
         <v>13</v>
       </c>
@@ -2991,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B63A016-4523-CA4C-A5E2-4AD2391F633B}">
   <dimension ref="A1:C18"/>
   <sheetViews>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B18F9E0-41DF-4B4D-BDAD-F7F3CACD9C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D2AC7-ED86-6440-895C-65DB385C3958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26160" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="38040" windowHeight="26160" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,7 +1939,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="16" t="s">
         <v>211</v>
       </c>
       <c r="G15" s="36"/>
@@ -1958,7 +1958,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="71"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1979,7 +1979,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="18" t="s">
         <v>192</v>
       </c>
       <c r="G17" s="37"/>
@@ -2000,7 +2000,7 @@
         <v>123</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="17" t="s">
         <v>193</v>
       </c>
       <c r="G18" s="8"/>
@@ -2017,7 +2017,7 @@
         <v>179</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D2AC7-ED86-6440-895C-65DB385C3958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3606C8C7-6A91-D641-852F-0DFF05C84DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1920" windowWidth="38040" windowHeight="26160" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>

--- a/Course Map.xlsx
+++ b/Course Map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google Drive/Classes/CS2401/cs2401-documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfdeblasio/Google_Drive/Classes/CS2401/cs2401-documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3606C8C7-6A91-D641-852F-0DFF05C84DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7469A0A3-EA8E-5E40-8B7C-17442253A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="38040" windowHeight="26160" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34560" windowHeight="20600" activeTab="1" xr2:uid="{E8B53F2A-050F-7446-94ED-1EBC7A28030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules Topics Objectives" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="228">
   <si>
     <t>Week</t>
   </si>
@@ -710,6 +710,18 @@
   </si>
   <si>
     <t>n^2 sort (Cont'd)</t>
+  </si>
+  <si>
+    <t>Email List</t>
+  </si>
+  <si>
+    <t>2D arrays</t>
+  </si>
+  <si>
+    <t>Ternary</t>
+  </si>
+  <si>
+    <t>(Arrays, Strings, Unit Tests, Loops, Recursion)</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1620,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1668,9 +1680,7 @@
       <c r="C2" s="28">
         <v>44431</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="16" t="s">
         <v>2</v>
@@ -1678,9 +1688,7 @@
       <c r="G2" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="16" t="s">
         <v>93</v>
@@ -1698,9 +1706,7 @@
       <c r="F3" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="17"/>
       <c r="K3" s="32"/>
@@ -1712,9 +1718,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="17"/>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="17"/>
       <c r="K4" s="39" t="s">
@@ -1729,20 +1733,16 @@
       <c r="C5" s="29">
         <v>44438</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="18" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="G5" s="54"/>
-      <c r="H5" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="18" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="K5" s="54"/>
     </row>
@@ -1750,17 +1750,15 @@
       <c r="A6" s="74"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1772,7 +1770,9 @@
       <c r="F7" s="19"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1783,12 +1783,10 @@
       <c r="C8" s="30">
         <v>44445</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="7"/>
@@ -1802,13 +1800,9 @@
       <c r="A9" s="74"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1823,42 +1817,30 @@
       <c r="C10" s="44">
         <v>44452</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="55" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="54"/>
-      <c r="H10" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="18" t="s">
-        <v>104</v>
-      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
       <c r="B11" s="43"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="D11" s="43"/>
       <c r="E11" s="50"/>
       <c r="F11" s="9" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="G11" s="41"/>
-      <c r="H11" s="43" t="s">
-        <v>16</v>
-      </c>
+      <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="J11" s="20"/>
       <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1871,17 +1853,13 @@
       <c r="C12" s="30">
         <v>44459</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="17" t="s">
         <v>184</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="17" t="s">
         <v>187</v>
@@ -1896,9 +1874,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="17"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="J13" s="17"/>
       <c r="K13" s="32"/>
     </row>
@@ -1910,9 +1886,7 @@
       <c r="C14" s="29">
         <v>44466</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="18" t="s">
         <v>223</v>
@@ -1935,17 +1909,13 @@
       <c r="C15" s="28">
         <v>44473</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="16" t="s">
         <v>211</v>
       </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="53" t="s">
         <v>177</v>
@@ -1975,17 +1945,13 @@
       <c r="C17" s="29">
         <v>44480</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="18" t="s">
         <v>192</v>
       </c>
       <c r="G17" s="37"/>
-      <c r="H17" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="18" t="s">
         <v>212</v>
@@ -1996,9 +1962,7 @@
       <c r="A18" s="74"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="17" t="s">
         <v>193</v>
@@ -2013,9 +1977,7 @@
       <c r="A19" s="74"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="7"/>
       <c r="F19" s="17"/>
       <c r="G19" s="8"/>
@@ -2038,9 +2000,7 @@
         <v>130</v>
       </c>
       <c r="G20" s="37"/>
-      <c r="H20" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="18" t="s">
         <v>213</v>
@@ -2068,17 +2028,13 @@
       <c r="C22" s="29">
         <v>44494</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="18" t="s">
         <v>205</v>
       </c>
       <c r="G22" s="37"/>
-      <c r="H22" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="55" t="s">
         <v>178</v>
@@ -2089,15 +2045,11 @@
       <c r="A23" s="74"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="17"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="48" t="s">
         <v>197</v>
@@ -2112,9 +2064,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="17"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="17"/>
       <c r="K24" s="32"/>
@@ -2127,17 +2077,13 @@
       <c r="C25" s="58">
         <v>44501</v>
       </c>
-      <c r="D25" s="59" t="s">
-        <v>34</v>
-      </c>
+      <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="21" t="s">
         <v>135</v>
       </c>
       <c r="G25" s="60"/>
-      <c r="H25" s="59" t="s">
-        <v>35</v>
-      </c>
+      <c r="H25" s="59"/>
       <c r="I25" s="59"/>
       <c r="J25" s="21" t="s">
         <v>134</v>
@@ -2152,15 +2098,11 @@
       <c r="C26" s="30">
         <v>44508</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="17"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="7" t="s">
-        <v>132</v>
-      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="17" t="s">
         <v>206</v>
@@ -2171,9 +2113,7 @@
       <c r="A27" s="75"/>
       <c r="B27" s="52"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="43" t="s">
-        <v>37</v>
-      </c>
+      <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="20"/>
       <c r="G27" s="50"/>
@@ -2190,9 +2130,7 @@
       <c r="C28" s="28">
         <v>44515</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="16" t="s">
         <v>206</v>
@@ -2227,17 +2165,13 @@
       <c r="C30" s="58">
         <v>44522</v>
       </c>
-      <c r="D30" s="59" t="s">
-        <v>108</v>
-      </c>
+      <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="21" t="s">
         <v>200</v>
       </c>
       <c r="G30" s="60"/>
-      <c r="H30" s="59" t="s">
-        <v>109</v>
-      </c>
+      <c r="H30" s="59"/>
       <c r="I30" s="59"/>
       <c r="J30" s="66" t="s">
         <v>110</v>
